--- a/Benchmark-Models/Fujita_SciSignal2010/Data/model1_data5.xlsx
+++ b/Benchmark-Models/Fujita_SciSignal2010/Data/model1_data5.xlsx
@@ -430,13 +430,13 @@
         <v>60.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5650691807633295</v>
+        <v>0.5676704371107991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8436917240883313</v>
+        <v>0.8448682883848471</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002677496126836127</v>
+        <v>0.0026887656894118905</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +444,13 @@
         <v>120.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3421306770462147</v>
+        <v>0.33967391095191385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8842362231224489</v>
+        <v>0.8849075198405607</v>
       </c>
       <c r="D4" t="n">
-        <v>0.021078399702983794</v>
+        <v>0.021137672408919967</v>
       </c>
     </row>
     <row r="5">
@@ -458,13 +458,13 @@
         <v>300.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.010385066099988566</v>
+        <v>0.009400669037069265</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3859376079874911</v>
+        <v>0.3827418111838897</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15701575649426305</v>
+        <v>0.15721143459840017</v>
       </c>
     </row>
     <row r="6">
@@ -472,13 +472,13 @@
         <v>600.0</v>
       </c>
       <c r="B6" t="n">
-        <v>3.059582441813597E-4</v>
+        <v>1.8845211722856928E-4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.12013525568648098</v>
+        <v>0.11977138029630481</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4117751572693924</v>
+        <v>0.4114788637010156</v>
       </c>
     </row>
     <row r="7">
@@ -486,13 +486,13 @@
         <v>900.0</v>
       </c>
       <c r="B7" t="n">
-        <v>2.9567515224823335E-4</v>
+        <v>1.8112669415485235E-4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.10061471154334538</v>
+        <v>0.10030497664561412</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5823970014667172</v>
+        <v>0.5816661021465206</v>
       </c>
     </row>
     <row r="8">
@@ -500,13 +500,13 @@
         <v>1800.0</v>
       </c>
       <c r="B8" t="n">
-        <v>2.9566609293322116E-4</v>
+        <v>1.811219738459048E-4</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0728154940362084</v>
+        <v>0.07230922106482424</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7468131737278515</v>
+        <v>0.7454049825294324</v>
       </c>
     </row>
     <row r="9">
@@ -514,13 +514,13 @@
         <v>3600.0</v>
       </c>
       <c r="B9" t="n">
-        <v>2.956660927733092E-4</v>
+        <v>1.811219738388937E-4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03987382265796927</v>
+        <v>0.038722176090607296</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5504628922991875</v>
+        <v>0.5470134044779932</v>
       </c>
     </row>
   </sheetData>
